--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt1-Ror2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt1-Ror2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Wnt1</t>
+  </si>
+  <si>
+    <t>Ror2</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>Wnt1</t>
-  </si>
-  <si>
-    <t>Ror2</t>
-  </si>
-  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>21</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09370100000000002</v>
+        <v>0.03910466666666667</v>
       </c>
       <c r="H2">
-        <v>0.281103</v>
+        <v>0.117314</v>
       </c>
       <c r="I2">
-        <v>0.7055497129891547</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7055497129891546</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.669265333333333</v>
+        <v>0.491263</v>
       </c>
       <c r="N2">
-        <v>14.007796</v>
+        <v>1.473789</v>
       </c>
       <c r="O2">
-        <v>0.8833113458668934</v>
+        <v>0.08507192955174298</v>
       </c>
       <c r="P2">
-        <v>0.8833113458668933</v>
+        <v>0.08507192955174299</v>
       </c>
       <c r="Q2">
-        <v>0.4375148309986667</v>
+        <v>0.01921067586066667</v>
       </c>
       <c r="R2">
-        <v>3.937633478988</v>
+        <v>0.172896082746</v>
       </c>
       <c r="S2">
-        <v>0.6232200665564506</v>
+        <v>0.08507192955174298</v>
       </c>
       <c r="T2">
-        <v>0.6232200665564505</v>
+        <v>0.08507192955174299</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09370100000000002</v>
+        <v>0.03910466666666667</v>
       </c>
       <c r="H3">
-        <v>0.281103</v>
+        <v>0.117314</v>
       </c>
       <c r="I3">
-        <v>0.7055497129891547</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.7055497129891546</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.5993529999999999</v>
+        <v>4.669265333333333</v>
       </c>
       <c r="N3">
-        <v>1.798059</v>
+        <v>14.007796</v>
       </c>
       <c r="O3">
-        <v>0.1133829986700321</v>
+        <v>0.8085758778815603</v>
       </c>
       <c r="P3">
-        <v>0.1133829986700321</v>
+        <v>0.8085758778815605</v>
       </c>
       <c r="Q3">
-        <v>0.05615997545300001</v>
+        <v>0.1825900644382222</v>
       </c>
       <c r="R3">
-        <v>0.505439779077</v>
+        <v>1.643310579944</v>
       </c>
       <c r="S3">
-        <v>0.07999734216949082</v>
+        <v>0.8085758778815603</v>
       </c>
       <c r="T3">
-        <v>0.07999734216949081</v>
+        <v>0.8085758778815605</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,232 +658,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.09370100000000002</v>
+        <v>0.03910466666666667</v>
       </c>
       <c r="H4">
-        <v>0.281103</v>
+        <v>0.117314</v>
       </c>
       <c r="I4">
-        <v>0.7055497129891547</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.7055497129891546</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.017474</v>
+        <v>0.6141496666666667</v>
       </c>
       <c r="N4">
-        <v>0.052422</v>
+        <v>1.842449</v>
       </c>
       <c r="O4">
-        <v>0.003305655463074583</v>
+        <v>0.1063521925666967</v>
       </c>
       <c r="P4">
-        <v>0.003305655463074583</v>
+        <v>0.1063521925666967</v>
       </c>
       <c r="Q4">
-        <v>0.001637331274</v>
+        <v>0.02401611799844445</v>
       </c>
       <c r="R4">
-        <v>0.014735981466</v>
+        <v>0.216145061986</v>
       </c>
       <c r="S4">
-        <v>0.002332304263213303</v>
+        <v>0.1063521925666967</v>
       </c>
       <c r="T4">
-        <v>0.002332304263213303</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.03910466666666667</v>
-      </c>
-      <c r="H5">
-        <v>0.117314</v>
-      </c>
-      <c r="I5">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="J5">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>4.669265333333333</v>
-      </c>
-      <c r="N5">
-        <v>14.007796</v>
-      </c>
-      <c r="O5">
-        <v>0.8833113458668934</v>
-      </c>
-      <c r="P5">
-        <v>0.8833113458668933</v>
-      </c>
-      <c r="Q5">
-        <v>0.1825900644382222</v>
-      </c>
-      <c r="R5">
-        <v>1.643310579944</v>
-      </c>
-      <c r="S5">
-        <v>0.2600912793104429</v>
-      </c>
-      <c r="T5">
-        <v>0.2600912793104428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.03910466666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.117314</v>
-      </c>
-      <c r="I6">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="J6">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.5993529999999999</v>
-      </c>
-      <c r="N6">
-        <v>1.798059</v>
-      </c>
-      <c r="O6">
-        <v>0.1133829986700321</v>
-      </c>
-      <c r="P6">
-        <v>0.1133829986700321</v>
-      </c>
-      <c r="Q6">
-        <v>0.02343749928066666</v>
-      </c>
-      <c r="R6">
-        <v>0.210937493526</v>
-      </c>
-      <c r="S6">
-        <v>0.03338565650054124</v>
-      </c>
-      <c r="T6">
-        <v>0.03338565650054124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.03910466666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.117314</v>
-      </c>
-      <c r="I7">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="J7">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.017474</v>
-      </c>
-      <c r="N7">
-        <v>0.052422</v>
-      </c>
-      <c r="O7">
-        <v>0.003305655463074583</v>
-      </c>
-      <c r="P7">
-        <v>0.003305655463074583</v>
-      </c>
-      <c r="Q7">
-        <v>0.0006833149453333334</v>
-      </c>
-      <c r="R7">
-        <v>0.006149834508000001</v>
-      </c>
-      <c r="S7">
-        <v>0.00097335119986128</v>
-      </c>
-      <c r="T7">
-        <v>0.00097335119986128</v>
+        <v>0.1063521925666967</v>
       </c>
     </row>
   </sheetData>
